--- a/src/main/resources/static/API명세서.xlsx
+++ b/src/main/resources/static/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Springs\Vinca_server\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A4709-91B2-475E-B429-82E70791C2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E40A82-C9C8-4778-8FED-F3B3C9AF9217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2085" windowWidth="21645" windowHeight="13305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1320" windowWidth="25230" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>머신펌프 RPM</t>
   </si>
@@ -382,6 +382,75 @@
   </si>
   <si>
     <t>클라이언트에게 센서들의 시간 및 값의 데이터를 반환한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "sensorDataList": [
+    {
+      "sensorId": "5",
+      "graph": false
+    },
+    {
+      "sensorId": "6",
+      "graph": false
+    },
+    {
+      "sensorId": "7",
+      "graph": true
+    }
+  ]
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "realtimeSensorDataList": [
+        {
+            "sensorId": 5,
+            "sensorValues": [
+                {
+                    "time": "2023-05-17T14:05:51+09:00",
+                    "value": "61.86690725014762"
+                }
+            ]
+        },
+        {
+            "sensorId": 6,
+            "sensorValues": [
+                {
+                    "time": "2023-05-17T14:05:51+09:00",
+                    "value": "8.71871081477914"
+                }
+            ]
+        },
+        {
+            "sensorId": 7,
+            "sensorValues": [
+                {
+                    "time": "2023-05-17T14:05:51+09:00",
+                    "value": "83.09653015012566"
+                },
+                {
+                    "time": "2023-05-17T14:05:50+09:00",
+                    "value": "95.36973989877548"
+                },
+                {
+                    "time": "2023-05-17T14:05:49+09:00",
+                    "value": "50.3899448643497"
+                },
+                {
+                    "time": "2023-05-17T14:05:48+09:00",
+                    "value": "75.92485165195917"
+                },
+                {
+                    "time": "2023-05-17T14:05:47+09:00",
+                    "value": "58.02070399098898"
+                }
+            ]
+        }
+    ]
+}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +698,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -1511,7 +1604,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1560,12 +1653,51 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,24 +1707,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1602,23 +1716,89 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1659,12 +1839,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,87 +1854,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,6 +1865,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2268,7 +2376,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="10">
@@ -2282,7 +2390,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2294,7 +2402,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2306,7 +2414,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -2318,7 +2426,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2330,7 +2438,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2342,7 +2450,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2354,7 +2462,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -2366,7 +2474,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2378,7 +2486,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -2390,7 +2498,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="10">
@@ -2404,7 +2512,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -2416,7 +2524,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -2428,7 +2536,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -2440,7 +2548,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2452,7 +2560,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -2464,7 +2572,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2476,7 +2584,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
@@ -2488,7 +2596,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -2500,7 +2608,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -2512,7 +2620,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="10">
@@ -2526,7 +2634,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -2538,7 +2646,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -2550,7 +2658,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="12">
         <v>24</v>
       </c>
@@ -2562,7 +2670,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -2574,7 +2682,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="10">
         <v>26</v>
       </c>
@@ -2586,7 +2694,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -2598,7 +2706,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="10">
         <v>28</v>
       </c>
@@ -2610,7 +2718,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="12">
         <v>29</v>
       </c>
@@ -2622,7 +2730,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="10">
         <v>30</v>
       </c>
@@ -2634,7 +2742,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
@@ -2646,7 +2754,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="10">
         <v>32</v>
       </c>
@@ -2658,7 +2766,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="12">
@@ -2672,7 +2780,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="10">
         <v>34</v>
       </c>
@@ -2684,7 +2792,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
@@ -2696,7 +2804,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="10">
         <v>36</v>
       </c>
@@ -2708,7 +2816,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
@@ -2720,7 +2828,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="10">
         <v>38</v>
       </c>
@@ -2732,7 +2840,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
@@ -2744,7 +2852,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="10">
         <v>40</v>
       </c>
@@ -2773,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB44613B-DC53-45B7-A14B-FF2BB4094E48}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2784,22 +2892,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -2808,23 +2916,23 @@
       <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="19" t="s">
         <v>86</v>
       </c>
@@ -2836,21 +2944,21 @@
       <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="42" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2860,21 +2968,21 @@
       <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="45" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="25">
         <v>1</v>
       </c>
@@ -2886,21 +2994,21 @@
       <c r="B5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2910,21 +3018,21 @@
       <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="42" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2934,22 +3042,22 @@
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="42" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="94"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
@@ -2958,22 +3066,22 @@
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="42" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="94">
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="28">
         <v>0.6</v>
       </c>
     </row>
@@ -2982,17 +3090,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3000,17 +3108,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3018,17 +3126,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3036,17 +3144,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3054,17 +3162,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3072,17 +3180,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -3090,17 +3198,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3108,17 +3216,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -3126,17 +3234,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3144,17 +3252,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -3162,17 +3270,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -3180,17 +3288,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3198,31 +3306,56 @@
         <v>19</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K3:M3"/>
@@ -3239,41 +3372,16 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -3289,7 +3397,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3302,42 +3410,42 @@
       <c r="A1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="51" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91"/>
+      <c r="I2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
@@ -3352,170 +3460,195 @@
       <c r="D3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="82" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="85" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="82" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E3:G5"/>
     <mergeCell ref="E6:G6"/>
@@ -3532,31 +3665,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3566,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF069D-47FF-499F-A3D9-55DF3B7E3907}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3582,42 +3690,42 @@
       <c r="A1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="51" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="91"/>
+      <c r="I2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
@@ -3632,193 +3740,344 @@
       <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="95" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="96"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="97"/>
       <c r="D5" s="98"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="82" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="85" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="82" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="102"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="43">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:B32"/>
+    <mergeCell ref="C20:D54"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
@@ -3835,11 +4094,33 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/API명세서.xlsx
+++ b/src/main/resources/static/API명세서.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Springs\Vinca_server\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E40A82-C9C8-4778-8FED-F3B3C9AF9217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE40D11-F866-47DB-97EF-284DC201FF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1320" windowWidth="25230" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="1845" windowWidth="25230" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스" sheetId="1" r:id="rId1"/>
     <sheet name="API 명세서" sheetId="2" r:id="rId2"/>
     <sheet name="dashboards_new" sheetId="3" r:id="rId3"/>
     <sheet name="sensor_data_" sheetId="5" r:id="rId4"/>
+    <sheet name="dashboard_all" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">데이터베이스!$A$3:$D$43</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>머신펌프 RPM</t>
   </si>
@@ -262,10 +263,6 @@
   </si>
   <si>
     <t>/dashboads/{board_id}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 대시보드 리스트 명 조회</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -453,6 +450,86 @@
 }</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+  "dashboardType": "2x2",
+  "dashboardSequence": 1
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dashboardId": 1,
+    "layoutDtos": [
+        {
+            "id": 1,
+            "layoutSequence": 1,
+            "layoutWidgetDtoList": []
+        },
+        {
+            "id": 2,
+            "layoutSequence": 2,
+            "layoutWidgetDtoList": []
+        },
+        {
+            "id": 3,
+            "layoutSequence": 3,
+            "layoutWidgetDtoList": []
+        },
+        {
+            "id": 4,
+            "layoutSequence": 4,
+            "layoutWidgetDtoList": []
+        }
+    ]
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 대시보드 명 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON 객체</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "dashboardId": 1,
+        "dashboardName": "New Dashboard"
+    },
+    {
+        "dashboardId": 2,
+        "dashboardName": "New Dashboard"
+    }
+]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 대시보드의 id와 이름을 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[GET]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청을 보낸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 대시보드의 id와 이름을 조회하여 반환한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 참고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,14 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -722,8 +791,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +1030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -1604,7 +1695,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1653,15 +1744,48 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,41 +1804,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1776,83 +1942,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1866,19 +1963,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2011,6 +2153,55 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ABC2E1-9CAE-4F07-AED4-7C7235E4067E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7973181" y="634254"/>
+          <a:ext cx="11180454" cy="7424688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>343656</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>551310</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6F097E-1967-469F-8B2E-015B1423D8CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2537,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="K3" sqref="K3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2376,7 +2567,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="10">
@@ -2390,7 +2581,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2402,7 +2593,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2414,7 +2605,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -2426,7 +2617,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2438,7 +2629,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2450,7 +2641,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2462,7 +2653,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -2474,7 +2665,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2486,7 +2677,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -2498,7 +2689,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="10">
@@ -2512,7 +2703,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -2524,7 +2715,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -2536,7 +2727,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -2548,7 +2739,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2560,7 +2751,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -2572,7 +2763,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2584,7 +2775,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
@@ -2596,7 +2787,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -2608,7 +2799,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -2620,7 +2811,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="10">
@@ -2634,7 +2825,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -2646,7 +2837,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -2658,7 +2849,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="12">
         <v>24</v>
       </c>
@@ -2670,7 +2861,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -2682,7 +2873,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="10">
         <v>26</v>
       </c>
@@ -2694,7 +2885,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -2706,7 +2897,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="10">
         <v>28</v>
       </c>
@@ -2718,7 +2909,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="12">
         <v>29</v>
       </c>
@@ -2730,7 +2921,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="10">
         <v>30</v>
       </c>
@@ -2742,7 +2933,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
@@ -2754,7 +2945,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="10">
         <v>32</v>
       </c>
@@ -2766,7 +2957,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="12">
@@ -2780,7 +2971,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="10">
         <v>34</v>
       </c>
@@ -2792,7 +2983,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
@@ -2804,7 +2995,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="10">
         <v>36</v>
       </c>
@@ -2816,7 +3007,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
@@ -2828,7 +3019,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="10">
         <v>38</v>
       </c>
@@ -2840,7 +3031,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
@@ -2852,7 +3043,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="10">
         <v>40</v>
       </c>
@@ -2882,7 +3073,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J14"/>
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2892,22 +3083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -2916,73 +3107,73 @@
       <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="25">
         <v>1</v>
       </c>
@@ -2991,98 +3182,100 @@
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="31" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="28"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="28">
-        <v>0.6</v>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3090,17 +3283,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3108,17 +3301,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3126,17 +3319,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3144,17 +3337,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3162,17 +3355,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3180,17 +3373,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -3198,17 +3391,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3216,17 +3409,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -3234,17 +3427,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3252,17 +3445,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -3270,17 +3463,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -3288,17 +3481,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3306,56 +3499,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K3:M3"/>
@@ -3372,21 +3540,47 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:G8" location="sensor_data_!A1" display="/sensor/data" xr:uid="{42B2622D-73B5-4CA6-936C-8BA5AA99BAC1}"/>
     <hyperlink ref="C4:G4" location="dashboards_new!A1" display="/dashboards/new" xr:uid="{A984E224-1F3C-4D32-9C61-10D93E64924E}"/>
+    <hyperlink ref="C7:G7" location="dashboard_all!C7" display="/dashboards/all" xr:uid="{35B8461D-D1E0-415C-9327-860F458A48C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F49FF-DB36-4197-9EA3-43DBC7641E89}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3408,231 +3602,380 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91"/>
-      <c r="I2" s="80" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="I2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="57" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="62"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="60" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="113"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="43">
+    <mergeCell ref="A20:B33"/>
+    <mergeCell ref="C20:D46"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E7:G11"/>
+    <mergeCell ref="E13:G19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A18:B18"/>
@@ -3649,22 +3992,15 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="E13:G19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF069D-47FF-499F-A3D9-55DF3B7E3907}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3688,398 +4024,415 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="91"/>
-      <c r="I2" s="80" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="I2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="57" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="62"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="60" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="60" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="102"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:B32"/>
-    <mergeCell ref="C20:D54"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
@@ -4094,6 +4447,439 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:B32"/>
+    <mergeCell ref="C20:D54"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5BE32-1ABC-4CA7-8392-0EFF9DEBCB90}">
+  <dimension ref="A1:Q54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="64"/>
+      <c r="I2" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="62"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="119"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B32"/>
+    <mergeCell ref="C20:D32"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G11"/>
@@ -4104,19 +4890,18 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E3:G5"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/API명세서.xlsx
+++ b/src/main/resources/static/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Springs\Vinca_server\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE40D11-F866-47DB-97EF-284DC201FF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94613030-AF63-462D-8E21-05E4891A83E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="1845" windowWidth="25230" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,7 +3073,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/static/API명세서.xlsx
+++ b/src/main/resources/static/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Springs\Vinca_server\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94613030-AF63-462D-8E21-05E4891A83E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48C793-4484-4B17-9C96-113B24FD9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1845" windowWidth="25230" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="dashboards_new" sheetId="3" r:id="rId3"/>
     <sheet name="sensor_data_" sheetId="5" r:id="rId4"/>
     <sheet name="dashboard_all" sheetId="7" r:id="rId5"/>
+    <sheet name="dashboard_delete" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">데이터베이스!$A$3:$D$43</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
   <si>
     <t>머신펌프 RPM</t>
   </si>
@@ -267,10 +268,6 @@
   </si>
   <si>
     <t>대시보드 생성</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[POST]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -515,10 +512,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>[GET]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>요청을 보낸다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -528,6 +521,31 @@
   </si>
   <si>
     <t>아래 참고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드를 삭제
+이 때, 대시보드와 관련된 레이아웃, 레이아웃 위젯, 레이아웃 위젯 센서, 이벤트가 전부 삭제된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제할 board_id를 URI에  추가하여 넘겨줌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제할 board_id를 URI에  추가하여 요청을 보낸다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>boad_id에 해당하는 대시보드를 삭제한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 명세서로 이동</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -743,15 +761,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -802,6 +811,16 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1693,9 +1712,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1726,9 +1745,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,12 +1760,69 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,24 +1832,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1786,25 +1841,118 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1813,13 +1961,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1843,12 +1991,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,145 +2006,55 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="32" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2016,12 +2068,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2089,13 +2135,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>10281</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>81804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>217935</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>115092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2138,13 +2184,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>343656</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>196104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>551310</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>124617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2187,13 +2233,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>343656</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>196104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>551310</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>124617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2218,6 +2264,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7973181" y="634254"/>
+          <a:ext cx="11180454" cy="7424688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619881</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>510429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141735</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D48653-B06D-4392-AD20-4425779B1211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8249406" y="1805829"/>
           <a:ext cx="11180454" cy="7424688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2567,7 +2662,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="10">
@@ -2581,7 +2676,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2593,7 +2688,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2605,7 +2700,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -2617,7 +2712,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2629,7 +2724,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2641,7 +2736,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2653,7 +2748,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -2665,7 +2760,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2677,7 +2772,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -2689,7 +2784,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="10">
@@ -2703,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -2715,7 +2810,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -2727,7 +2822,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -2739,7 +2834,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2751,7 +2846,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -2763,7 +2858,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2775,7 +2870,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
@@ -2787,7 +2882,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -2799,7 +2894,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -2811,7 +2906,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="10">
@@ -2825,7 +2920,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -2837,7 +2932,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -2849,7 +2944,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="12">
         <v>24</v>
       </c>
@@ -2861,7 +2956,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -2873,7 +2968,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="10">
         <v>26</v>
       </c>
@@ -2885,7 +2980,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -2897,7 +2992,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="10">
         <v>28</v>
       </c>
@@ -2909,7 +3004,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="12">
         <v>29</v>
       </c>
@@ -2921,7 +3016,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="10">
         <v>30</v>
       </c>
@@ -2933,7 +3028,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
@@ -2945,7 +3040,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="10">
         <v>32</v>
       </c>
@@ -2957,7 +3052,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="12">
@@ -2971,7 +3066,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="10">
         <v>34</v>
       </c>
@@ -2983,7 +3078,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
@@ -2995,7 +3090,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="10">
         <v>36</v>
       </c>
@@ -3007,7 +3102,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
@@ -3019,7 +3114,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="10">
         <v>38</v>
       </c>
@@ -3031,7 +3126,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
@@ -3043,7 +3138,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="10">
         <v>40</v>
       </c>
@@ -3072,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB44613B-DC53-45B7-A14B-FF2BB4094E48}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3083,22 +3178,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3107,74 +3202,74 @@
       <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="42" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="26"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="45" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="25">
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3182,73 +3277,73 @@
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="42" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="25">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3256,25 +3351,25 @@
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="25">
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3283,17 +3378,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3301,17 +3396,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3319,17 +3414,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3337,17 +3432,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3355,17 +3450,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3373,17 +3468,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -3391,17 +3486,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3409,17 +3504,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -3427,17 +3522,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3445,17 +3540,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -3463,17 +3558,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -3481,17 +3576,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3499,31 +3594,56 @@
         <v>19</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K3:M3"/>
@@ -3540,47 +3660,23 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C8:G8" location="sensor_data_!A1" display="/sensor/data" xr:uid="{42B2622D-73B5-4CA6-936C-8BA5AA99BAC1}"/>
     <hyperlink ref="C4:G4" location="dashboards_new!A1" display="/dashboards/new" xr:uid="{A984E224-1F3C-4D32-9C61-10D93E64924E}"/>
     <hyperlink ref="C7:G7" location="dashboard_all!C7" display="/dashboards/all" xr:uid="{35B8461D-D1E0-415C-9327-860F458A48C6}"/>
+    <hyperlink ref="C6:G6" location="dashboard_delete!A1" display="/dashboards/{board_id}" xr:uid="{F1308027-64EF-4D14-AA44-19D7D481B259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3588,10 +3684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F49FF-DB36-4197-9EA3-43DBC7641E89}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3600,409 +3696,423 @@
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="105"/>
+      <c r="I4" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="E5" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="82" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="84"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="84"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="85" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="113"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="102"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="102"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A20:B33"/>
-    <mergeCell ref="C20:D46"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="E13:G19"/>
+  <mergeCells count="44">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:B35"/>
+    <mergeCell ref="C22:D48"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="E15:G21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{A6ACD91D-ABB5-431D-BAB5-B6A1151D5A25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4010,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DF069D-47FF-499F-A3D9-55DF3B7E3907}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4022,439 +4132,453 @@
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="51" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="105"/>
+      <c r="I4" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="D6" s="118"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="82" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="84"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="84"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="85" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85" t="s">
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="95"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
+      <c r="D22" s="123"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="44">
+    <mergeCell ref="A22:B34"/>
+    <mergeCell ref="C22:D56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G13"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:B32"/>
-    <mergeCell ref="C20:D54"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{8986825A-83E5-405F-9E55-8EE8B43E98A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4463,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5BE32-1ABC-4CA7-8392-0EFF9DEBCB90}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4475,435 +4599,912 @@
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="106"/>
+      <c r="G4" s="105"/>
+      <c r="I4" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="127"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="84"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="84"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="119"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B32"/>
-    <mergeCell ref="C20:D32"/>
+  <mergeCells count="44">
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:B34"/>
+    <mergeCell ref="C22:D34"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{B7AA9ADE-B3EC-451B-B019-97EF8B737FD1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95274990-D0FE-4862-A9C2-9A5D51D94B4E}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="106"/>
+      <c r="G4" s="105"/>
+      <c r="I4" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="127"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="84"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="84"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="84"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="84"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A22:B34"/>
+    <mergeCell ref="C22:D34"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G11"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{0AB450BF-732F-49D1-8F12-4C93AE8FF78C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/src/main/resources/static/API명세서.xlsx
+++ b/src/main/resources/static/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Springs\Vinca_server\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48C793-4484-4B17-9C96-113B24FD9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0E668-C4B0-4EAA-B0E8-C08FBB6EDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="sensor_data_" sheetId="5" r:id="rId4"/>
     <sheet name="dashboard_all" sheetId="7" r:id="rId5"/>
     <sheet name="dashboard_delete" sheetId="8" r:id="rId6"/>
+    <sheet name="dashboard_조회" sheetId="9" r:id="rId7"/>
+    <sheet name="dashboard_수정(저장)" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">데이터베이스!$A$3:$D$43</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
   <si>
     <t>머신펌프 RPM</t>
   </si>
@@ -240,10 +242,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대시보드 수정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>대시보드 삭제</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -260,10 +258,6 @@
   </si>
   <si>
     <t>/dashboards/new</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dashboads/{board_id}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -546,6 +540,384 @@
   </si>
   <si>
     <t>API 명세서로 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 수정(저장)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dashboads/save</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "dashboardId": 52,
+    "dashboardTitle": "",
+    "dashboardType": "2x2",
+    "dashboardSequence": 1,
+    "layoutList": [
+        {
+            "layoutId": 102,
+            "layoutSequence": 2,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetId": 303,
+                    "layoutWidgetStartPos": 3,
+                    "layoutWidgetEndPos": 4,
+                    "layoutWidgetZPos": 5,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 1
+                },
+                {
+                    "layoutWidgetId": 302,
+                    "layoutWidgetStartPos": 7,
+                    "layoutWidgetEndPos": 8,
+                    "layoutWidgetZPos": 6,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 2
+                }
+            ]
+        },
+        {
+            "layoutId": 103,
+            "layoutSequence": 1,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetId": 305,
+                    "layoutWidgetStartPos": 9,
+                    "layoutWidgetEndPos": 5,
+                    "layoutWidgetZPos": 3,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventId": 254,
+                            "eventOver": 5,
+                            "eventUnder": 2,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventId": 255,
+                            "eventOver": 4,
+                            "eventUnder": 3,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorId": 254,
+                            "layoutWidgetSensorSequence": 120,
+                            "sensorId": 5
+                        }
+                    ],
+                    "widgetId": 3
+                },
+                {
+                    "layoutWidgetId": 304,
+                    "layoutWidgetStartPos": 30,
+                    "layoutWidgetEndPos": 40,
+                    "layoutWidgetZPos": 50,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventId": 252,
+                            "eventOver": 80,
+                            "eventUnder": 90,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventId": 253,
+                            "eventOver": 60,
+                            "eventUnder": 70,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorId": 252,
+                            "layoutWidgetSensorSequence": 110,
+                            "sensorId": 2
+                        },
+                        {
+                            "layoutWidgetSensorId": 253,
+                            "layoutWidgetSensorSequence": 100,
+                            "sensorId": 1
+                        }
+                    ],
+                    "widgetId": 3
+                }
+            ]
+        },
+        {
+            "layoutId": 153,
+            "layoutSequence": 2,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetId": 355,
+                    "layoutWidgetStartPos": 3,
+                    "layoutWidgetEndPos": 4,
+                    "layoutWidgetZPos": 5,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 1
+                },
+                {
+                    "layoutWidgetId": 354,
+                    "layoutWidgetStartPos": 7,
+                    "layoutWidgetEndPos": 8,
+                    "layoutWidgetZPos": 6,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 2
+                }
+            ]
+        },
+        {
+            "layoutId": 152,
+            "layoutSequence": 1,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetId": 353,
+                    "layoutWidgetStartPos": 9,
+                    "layoutWidgetEndPos": 5,
+                    "layoutWidgetZPos": 3,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventId": 304,
+                            "eventOver": 5,
+                            "eventUnder": 2,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventId": 305,
+                            "eventOver": 4,
+                            "eventUnder": 3,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorId": 304,
+                            "layoutWidgetSensorSequence": 120,
+                            "sensorId": 5
+                        }
+                    ],
+                    "widgetId": 3
+                },
+                {
+                    "layoutWidgetId": 352,
+                    "layoutWidgetStartPos": 30,
+                    "layoutWidgetEndPos": 40,
+                    "layoutWidgetZPos": 50,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventId": 303,
+                            "eventOver": 60,
+                            "eventUnder": 70,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventId": 302,
+                            "eventOver": 80,
+                            "eventUnder": 90,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorId": 303,
+                            "layoutWidgetSensorSequence": 110,
+                            "sensorId": 2
+                        },
+                        {
+                            "layoutWidgetSensorId": 302,
+                            "layoutWidgetSensorSequence": 100,
+                            "sensorId": 1
+                        }
+                    ],
+                    "widgetId": 3
+                }
+            ]
+        }
+   </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조회할 대시보드의 아이디를 pathvalue로 넘김 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleDashboardResponse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Integer dashboardId;
+    private String dashboardTitle;
+    private String dashboardType;
+    private Integer dashboardSequence;
+    private List&lt;LayoutDto&gt; layoutList=new ArrayList&lt;&gt;();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장할 대시보드 request dto를 보내줌. 전체 데이터를 다 담아서 전송</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Integer dashboardId;
+    private String dashboardTitle;
+    private List&lt;LayoutDto&gt; layoutDtoList=new ArrayList&lt;&gt;();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseEntity.ok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 저장할때 post 예제(requestDTO)
+{
+    "dashboardId": 1,
+    "dashboardTitle": "",
+    "layoutDtoList": [
+        {
+            "layoutId": 52,
+            "layoutSequence": 1,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetStartPos": 30,
+                    "layoutWidgetEndPos": 40,
+                    "layoutWidgetZPos": 50,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventOver": 60,
+                            "eventUnder": 70,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventOver": 80,
+                            "eventUnder": 90,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorSequence": 100,
+                            "sensorId": 1
+                        },
+                        {
+                            "layoutWidgetSensorSequence": 110,
+                            "sensorId": 2
+                        }
+                    ],
+                    "widgetId": 3
+                },
+                {
+                    "layoutWidgetStartPos": 9,
+                    "layoutWidgetEndPos": 5,
+                    "layoutWidgetZPos": 3,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [
+                        {
+                            "eventOver": 5,
+                            "eventUnder": 2,
+                            "eventColor": null,
+                            "eventType": null
+                        },
+                        {
+                            "eventOver": 4,
+                            "eventUnder": 3,
+                            "eventColor": null,
+                            "eventType": null
+                        }
+                    ],
+                    "layoutWidgetSensorDtoList": [
+                        {
+                            "layoutWidgetSensorSequence": 120,
+                            "sensorId": 5
+                        }
+                    ],
+                    "widgetId": 3
+                }
+            ]
+        },
+        {
+            "layoutId": 53,
+            "layoutSequence": 2,
+            "layoutWidgetDtoList": [
+                {
+                    "layoutWidgetStartPos": 7,
+                    "layoutWidgetEndPos": 8,
+                    "layoutWidgetZPos": 6,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 2
+                },
+                {
+                    "layoutWidgetStartPos": 3,
+                    "layoutWidgetEndPos": 4,
+                    "layoutWidgetZPos": 5,
+                    "layoutWidgetColor": null,
+                    "layoutWidgetProperty": null,
+                    "eventDtoList": [],
+                    "layoutWidgetSensorDtoList": [],
+                    "widgetId": 1
+                }
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 저장(수정)의 역할. 
+대시보드 저장 버튼을 누를 시, 해당 데이터가 모두 새롭게 저장된다. 
+이전 저장된 대시보드를 제외한 이하 레이아웃~이벤트까지의 데이터가 모두 삭제되고 다시 저장된다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저장 후 OK 를 보냄 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDashboardRequest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>boad_id에 해당하는 대시보드에 있는 모든 관련 엔티티들의 정보를 반환한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드의 정보를 조회</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +1199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,18 +1417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1667,6 +2033,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1714,7 +2089,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1754,9 +2129,6 @@
     <xf numFmtId="9" fontId="22" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1766,7 +2138,7 @@
     <xf numFmtId="0" fontId="22" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1775,7 +2147,7 @@
     <xf numFmtId="0" fontId="22" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1787,6 +2159,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,41 +2213,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,83 +2378,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2018,56 +2426,41 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="32" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2297,6 +2690,104 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D48653-B06D-4392-AD20-4425779B1211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8249406" y="1805829"/>
+          <a:ext cx="11180454" cy="7424688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619881</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>510429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141735</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E03E189-6B4F-4078-8A45-C9E537AB5A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8249406" y="1805829"/>
+          <a:ext cx="11180454" cy="7424688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619881</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>510429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141735</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE96FD57-17CD-4557-B895-5D49E6F44A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +3153,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="10">
@@ -2676,7 +3167,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2688,7 +3179,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2700,7 +3191,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -2712,7 +3203,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2724,7 +3215,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2736,7 +3227,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2748,7 +3239,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -2760,7 +3251,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2772,7 +3263,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -2784,7 +3275,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="10">
@@ -2798,7 +3289,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -2810,7 +3301,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -2822,7 +3313,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -2834,7 +3325,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2846,7 +3337,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -2858,7 +3349,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2870,7 +3361,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
@@ -2882,7 +3373,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -2894,7 +3385,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -2906,7 +3397,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="10">
@@ -2920,7 +3411,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -2932,7 +3423,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -2944,7 +3435,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="12">
         <v>24</v>
       </c>
@@ -2956,7 +3447,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -2968,7 +3459,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="10">
         <v>26</v>
       </c>
@@ -2980,7 +3471,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -2992,7 +3483,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="10">
         <v>28</v>
       </c>
@@ -3004,7 +3495,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="12">
         <v>29</v>
       </c>
@@ -3016,7 +3507,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="10">
         <v>30</v>
       </c>
@@ -3028,7 +3519,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
@@ -3040,7 +3531,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="10">
         <v>32</v>
       </c>
@@ -3052,7 +3543,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="12">
@@ -3066,7 +3557,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="10">
         <v>34</v>
       </c>
@@ -3078,7 +3569,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
@@ -3090,7 +3581,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="10">
         <v>36</v>
       </c>
@@ -3102,7 +3593,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
@@ -3114,7 +3605,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="10">
         <v>38</v>
       </c>
@@ -3126,7 +3617,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
@@ -3138,7 +3629,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="10">
         <v>40</v>
       </c>
@@ -3168,7 +3659,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3178,22 +3669,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3202,73 +3693,75 @@
       <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="36" t="s">
+      <c r="C3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="25"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="24">
         <v>1</v>
       </c>
@@ -3277,72 +3770,76 @@
       <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="20"/>
+      <c r="C5" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="36" t="s">
+      <c r="C6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="20"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
+      <c r="C7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="24">
         <v>1</v>
       </c>
@@ -3351,24 +3848,24 @@
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
+      <c r="C8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="24">
         <v>1</v>
       </c>
@@ -3378,17 +3875,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3396,17 +3893,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3414,17 +3911,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3432,17 +3929,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3450,17 +3947,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3468,17 +3965,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -3486,17 +3983,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3504,17 +4001,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -3522,17 +4019,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3540,17 +4037,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
       <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -3558,17 +4055,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -3576,17 +4073,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
       <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3594,56 +4091,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K3:M3"/>
@@ -3660,16 +4132,41 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -3677,6 +4174,8 @@
     <hyperlink ref="C4:G4" location="dashboards_new!A1" display="/dashboards/new" xr:uid="{A984E224-1F3C-4D32-9C61-10D93E64924E}"/>
     <hyperlink ref="C7:G7" location="dashboard_all!C7" display="/dashboards/all" xr:uid="{35B8461D-D1E0-415C-9327-860F458A48C6}"/>
     <hyperlink ref="C6:G6" location="dashboard_delete!A1" display="/dashboards/{board_id}" xr:uid="{F1308027-64EF-4D14-AA44-19D7D481B259}"/>
+    <hyperlink ref="C3:G3" location="dashboard_조회!A1" display="/dashboards/{board_id}" xr:uid="{E0123B2B-7DA4-4AB1-BA14-4AC94EA3A82B}"/>
+    <hyperlink ref="C5:G5" location="'dashboard_수정(저장)'!A1" display="/dashboads/{board_id}" xr:uid="{773D327F-B6E1-4F05-91A7-32BFAFDCA76E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3697,401 +4196,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106" t="s">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="105"/>
-      <c r="I4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="71" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="61"/>
+      <c r="A22" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="86"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A22:B35"/>
     <mergeCell ref="C22:D48"/>
@@ -4108,6 +4579,34 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -4123,7 +4622,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4133,866 +4632,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="104" t="s">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="105"/>
-      <c r="I4" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="65" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="74" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="74" t="s">
+      <c r="B22" s="108"/>
+      <c r="C22" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A22:B34"/>
-    <mergeCell ref="C22:D56"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:L4"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{8986825A-83E5-405F-9E55-8EE8B43E98A5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5BE32-1ABC-4CA7-8392-0EFF9DEBCB90}">
-  <dimension ref="A1:Q56"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="55"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="105"/>
-      <c r="I4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="58"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A4:B4"/>
@@ -5014,6 +5051,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A22:B34"/>
+    <mergeCell ref="C22:D56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
@@ -5023,6 +5070,428 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{8986825A-83E5-405F-9E55-8EE8B43E98A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA5BE32-1ABC-4CA7-8392-0EFF9DEBCB90}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A22:B34"/>
     <mergeCell ref="C22:D34"/>
@@ -5037,6 +5506,36 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -5052,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95274990-D0FE-4862-A9C2-9A5D51D94B4E}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
@@ -5063,401 +5562,1070 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="55"/>
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106" t="s">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="105"/>
-      <c r="I4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="84"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:B34"/>
     <mergeCell ref="C22:D34"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{0AB450BF-732F-49D1-8F12-4C93AE8FF78C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015E05BD-7C72-42FF-865A-AE455C2F57E1}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="129"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="129"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="129"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="129"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="129"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B34"/>
+    <mergeCell ref="C22:F78"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
@@ -5474,8 +6642,569 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:G13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C6:D13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{25B8CC6A-068F-405A-81F4-10B1C3B648B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBFE084-1A09-4700-AB85-5D29FFAD4C29}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="69"/>
+      <c r="I4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="7" spans="1:17" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="67"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="67"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="67"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="135"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="135"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="135"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="135"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="135"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="135"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="135"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:D66"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G13"/>
@@ -5486,14 +7215,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="M4:Q4"/>
     <mergeCell ref="E5:G7"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="M4:Q4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A4:B4"/>
@@ -5503,7 +7231,7 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{0AB450BF-732F-49D1-8F12-4C93AE8FF78C}"/>
+    <hyperlink ref="A1:B2" location="'API 명세서'!A1" display="API 명세서로 이동" xr:uid="{EB8F46C8-4AE4-4DC8-8D19-8DCB2B8AD8D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
